--- a/biology/Histoire de la zoologie et de la botanique/Karl_Wilhelm_Verhoeff/Karl_Wilhelm_Verhoeff.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Karl_Wilhelm_Verhoeff/Karl_Wilhelm_Verhoeff.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl (ou Carl) Wilhelm Verhoeff, né le 25 novembre 1867 à Soest et décédé le 6 décembre 1944, est un zoologiste allemand, spécialisé dans les mille-pattes (myriapodes), les cloportes (Isopoda) et dans une moindre mesure, les insectes.
 Verhoeff a été – avec Ralph Vary Chamberlin et Carl von Attems-Petzenstein (de) – l'un des auteurs les plus prolifiques de taxons de mille-pattes. La compilation de ses travaux en 1962 par Gisela Mauermayer a retrouvé 670 dossiers de travaux scientifiques dont des contributions majeures à la série Klassen und Ordnungen des Tierreichs.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl W. Verhoeff naît en Westphalie, d'un père, Karl, apothicaire et de sa femme Mathilde (née Rocholl). Il obtient son Abitur à Soest en 1889 et son doctorat en zoologie à Bonn en 1893. En 1902, il épouse Marie Kringer; celle-ci meurt en 1937 lors d'une intervention chirurgicale. Ils ont deux filles et un fils. Le fils meurt en 1942 sur le front russe.
 Verhoeff est brièvement employé (de 1900 à 1905) au musée d'histoire naturelle de Berlin, mais pendant le reste de sa longue carrière, il travaille dans le privé. Il entreprend un certain nombre de voyages de collecte, notamment sur la Riviera française, en Roumanie, en Bulgarie, en Bosnie et en Grèce. Certains de ces voyages sont financés par l'Académie royale des sciences de Prusse. Il les finances en partie lui-même par la vente de ses collections ; Munich et Berlin en détiennent encore une grande partie.
